--- a/BackTest/2020-01-15 BackTest DASH.xlsx
+++ b/BackTest/2020-01-15 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>134.46114377</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>110.77814377</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>76600</v>
@@ -523,7 +523,7 @@
         <v>111.27824377</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>76000</v>
@@ -562,7 +562,7 @@
         <v>111.27824377</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>76700</v>
@@ -601,7 +601,7 @@
         <v>45.72924376999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>76700</v>
@@ -640,7 +640,7 @@
         <v>46.38254376999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>76200</v>
@@ -679,7 +679,7 @@
         <v>46.40854376999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>76800</v>
@@ -718,7 +718,7 @@
         <v>48.40854376999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>77000</v>
@@ -757,7 +757,7 @@
         <v>48.59084376999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>77050</v>
@@ -796,7 +796,7 @@
         <v>50.13744376999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>77500</v>
@@ -835,7 +835,7 @@
         <v>65.62474376999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>77800</v>
@@ -874,7 +874,7 @@
         <v>96.83824376999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>77850</v>
@@ -913,7 +913,7 @@
         <v>109.73204377</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>77950</v>
@@ -952,7 +952,7 @@
         <v>114.37284377</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>78050</v>
@@ -991,7 +991,7 @@
         <v>115.67734377</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>78300</v>
@@ -1030,7 +1030,7 @@
         <v>122.34954377</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>78850</v>
@@ -1069,7 +1069,7 @@
         <v>122.34954377</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>78900</v>
@@ -1108,7 +1108,7 @@
         <v>122.34954377</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>78900</v>
@@ -1147,7 +1147,7 @@
         <v>122.04424377</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>78900</v>
@@ -1186,7 +1186,7 @@
         <v>113.39484377</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>78350</v>
@@ -1225,7 +1225,7 @@
         <v>111.39484377</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>77850</v>
@@ -1264,7 +1264,7 @@
         <v>111.42347779</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>77350</v>
@@ -1303,7 +1303,7 @@
         <v>111.42347779</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>77600</v>
@@ -1342,7 +1342,7 @@
         <v>111.42347779</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>77600</v>
@@ -1381,7 +1381,7 @@
         <v>111.42347779</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>77600</v>
@@ -1420,7 +1420,7 @@
         <v>111.33117779</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>77600</v>
@@ -1459,7 +1459,7 @@
         <v>116.54057779</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>76950</v>
@@ -1498,7 +1498,7 @@
         <v>115.50287779</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>77750</v>
@@ -1537,7 +1537,7 @@
         <v>126.23367779</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>77400</v>
@@ -1576,7 +1576,7 @@
         <v>126.23367779</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>77450</v>
@@ -1615,7 +1615,7 @@
         <v>126.23367779</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>77450</v>
@@ -1654,7 +1654,7 @@
         <v>139.08587779</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>77450</v>
@@ -1693,7 +1693,7 @@
         <v>139.88597779</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>77500</v>
@@ -1732,7 +1732,7 @@
         <v>139.36267779</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>78500</v>
@@ -1771,9 +1771,11 @@
         <v>139.36267779</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>78400</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1808,9 +1810,11 @@
         <v>184.14917779</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>78400</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1845,9 +1849,11 @@
         <v>184.14917779</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>78700</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1882,9 +1888,11 @@
         <v>184.14917779</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>78700</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1919,9 +1927,11 @@
         <v>184.14917779</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>78700</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1956,9 +1966,11 @@
         <v>180.27427779</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>78700</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1993,9 +2005,11 @@
         <v>180.7242777899999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>78150</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2030,9 +2044,11 @@
         <v>180.8542777899999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>78200</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2067,9 +2083,11 @@
         <v>198.35297779</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>78700</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2104,9 +2122,11 @@
         <v>198.53367779</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>79150</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2141,9 +2161,11 @@
         <v>228.7825777899999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>79250</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2178,9 +2200,11 @@
         <v>228.7825777899999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>79300</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2215,9 +2239,11 @@
         <v>312.69237779</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>79300</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2252,9 +2278,11 @@
         <v>334.63657841</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>79500</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2289,9 +2317,11 @@
         <v>594.60117841</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>79750</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2326,9 +2356,11 @@
         <v>573.60117841</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>79800</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2400,9 +2432,11 @@
         <v>560.10327841</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>79400</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2437,9 +2471,11 @@
         <v>547.55907841</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>78800</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2474,9 +2510,11 @@
         <v>552.01767841</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>78200</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2511,9 +2549,11 @@
         <v>533.4590784100001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>78350</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2548,9 +2588,11 @@
         <v>599.8538784100001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>78200</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2585,9 +2627,11 @@
         <v>695.1630784100001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>78500</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2622,9 +2666,11 @@
         <v>687.3981784100001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>79000</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2659,9 +2705,11 @@
         <v>654.5480784100001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>78550</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2696,9 +2744,11 @@
         <v>654.5480784100001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>78300</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2733,9 +2783,11 @@
         <v>615.0066784100002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>78300</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2770,9 +2822,11 @@
         <v>615.0066784100002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>78250</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2807,9 +2861,11 @@
         <v>633.6835784100002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>78250</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -3066,9 +3122,11 @@
         <v>635.2077784100002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>79000</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3103,9 +3161,11 @@
         <v>635.2077784100002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>79000</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3325,9 +3385,11 @@
         <v>658.7355784100001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>79200</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3362,9 +3424,11 @@
         <v>686.7355784100001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>79900</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -4213,9 +4277,11 @@
         <v>805.5443811800003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>78750</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4731,9 +4797,11 @@
         <v>748.4316051600005</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>78550</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4842,9 +4910,11 @@
         <v>734.9098928700004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>78550</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4879,9 +4949,11 @@
         <v>734.9098928700004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>78450</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4953,9 +5025,11 @@
         <v>771.6861800000004</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>78550</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5175,9 +5249,11 @@
         <v>733.8867863200005</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>78600</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -10392,16 +10468,18 @@
         <v>1461.7965537</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L269" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
       <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
@@ -10427,11 +10505,15 @@
         <v>1461.7965537</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10464,7 +10546,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10497,7 +10583,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10530,7 +10620,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10563,7 +10657,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10596,7 +10694,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10629,7 +10731,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10662,7 +10768,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10691,11 +10801,15 @@
         <v>1452.21036115</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +10838,15 @@
         <v>1472.48016115</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10761,7 +10879,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10794,7 +10916,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10827,7 +10953,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10856,11 +10986,15 @@
         <v>1626.66656115</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10893,7 +11027,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10926,7 +11064,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10959,7 +11101,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10988,11 +11134,15 @@
         <v>1619.44731797</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11025,7 +11175,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11058,7 +11212,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11091,7 +11249,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11124,7 +11286,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11157,7 +11323,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11190,7 +11360,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11223,7 +11397,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11256,7 +11434,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11289,7 +11471,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11322,7 +11508,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11355,7 +11545,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11384,11 +11578,15 @@
         <v>1689.55671797</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11417,11 +11615,15 @@
         <v>1689.43111797</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11454,7 +11656,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11487,7 +11693,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11520,7 +11730,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11553,7 +11767,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11586,7 +11804,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11615,11 +11837,15 @@
         <v>1731.97331797</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +11874,15 @@
         <v>1737.50571797</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11681,11 +11911,15 @@
         <v>1737.50571797</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +11948,15 @@
         <v>1736.70771797</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11747,11 +11985,15 @@
         <v>1728.16721797</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11780,11 +12022,15 @@
         <v>1721.18011797</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11813,11 +12059,15 @@
         <v>1860.32521797</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11846,11 +12096,15 @@
         <v>1859.33241797</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11879,11 +12133,15 @@
         <v>1857.07731797</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11912,11 +12170,15 @@
         <v>1857.07731797</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11945,11 +12207,15 @@
         <v>1857.29831797</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11978,11 +12244,15 @@
         <v>1865.76551797</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12011,11 +12281,15 @@
         <v>1857.87721797</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12044,11 +12318,15 @@
         <v>1857.87721797</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12077,11 +12355,15 @@
         <v>1860.02031797</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12110,11 +12392,15 @@
         <v>1865.34581797</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12143,11 +12429,15 @@
         <v>1887.80541797</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12176,11 +12466,15 @@
         <v>1883.93501797</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12209,11 +12503,15 @@
         <v>1886.69311797</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12246,7 +12544,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12279,7 +12581,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12312,7 +12618,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12345,7 +12655,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12378,7 +12692,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12411,7 +12729,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12440,11 +12762,15 @@
         <v>1921.47841797</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12473,11 +12799,15 @@
         <v>1921.47841797</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12506,11 +12836,15 @@
         <v>1975.89371797</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12539,11 +12873,15 @@
         <v>1934.54991797</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12572,11 +12910,15 @@
         <v>1934.59991797</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12605,11 +12947,15 @@
         <v>1896.884517969999</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12642,7 +12988,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12675,7 +13025,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12704,11 +13058,15 @@
         <v>1920.98851797</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12737,11 +13095,15 @@
         <v>1908.435317969999</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12774,7 +13136,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12807,7 +13173,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12836,11 +13206,15 @@
         <v>1917.90341797</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12869,11 +13243,15 @@
         <v>1945.221663939999</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12906,7 +13284,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12939,7 +13321,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12968,11 +13354,15 @@
         <v>1960.401963939999</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13001,11 +13391,15 @@
         <v>1966.461763939999</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13034,11 +13428,15 @@
         <v>1976.401263939999</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13067,11 +13465,15 @@
         <v>1969.338763939999</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13100,11 +13502,15 @@
         <v>1970.103063939999</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13133,11 +13539,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13170,7 +13580,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13203,7 +13617,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13236,7 +13654,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13269,7 +13691,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13302,7 +13728,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13335,7 +13765,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13368,7 +13802,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13401,7 +13839,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13434,7 +13876,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13467,7 +13913,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13500,7 +13950,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13533,7 +13987,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13566,7 +14024,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13599,7 +14061,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13632,7 +14098,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13665,7 +14135,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13698,7 +14172,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13731,7 +14209,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13764,7 +14246,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13797,7 +14283,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13830,7 +14320,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +14357,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13896,7 +14394,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13925,11 +14427,15 @@
         <v>2060.930663939999</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13962,7 +14468,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +14501,15 @@
         <v>2070.498663939999</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14024,11 +14538,15 @@
         <v>2076.438663939999</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14061,7 +14579,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14094,7 +14616,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14127,7 +14653,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14160,7 +14690,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14193,7 +14727,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14226,7 +14764,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14259,7 +14801,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14292,7 +14838,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14325,7 +14875,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14358,7 +14912,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14391,7 +14949,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14424,7 +14986,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14457,7 +15023,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14486,11 +15056,15 @@
         <v>2103.724563939999</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14519,11 +15093,15 @@
         <v>2108.440703299999</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14552,11 +15130,15 @@
         <v>2108.440703299999</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14589,7 +15171,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14622,7 +15208,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14651,11 +15241,15 @@
         <v>2156.768463939999</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +15278,15 @@
         <v>2156.768463939999</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14717,11 +15315,15 @@
         <v>2158.23776394</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14754,7 +15356,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14787,7 +15393,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14816,11 +15426,15 @@
         <v>2192.801463939999</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14849,11 +15463,15 @@
         <v>2196.662963939999</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14882,11 +15500,15 @@
         <v>2196.662963939999</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14915,11 +15537,15 @@
         <v>2196.662963939999</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14948,11 +15574,15 @@
         <v>2257.551618629999</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14981,11 +15611,15 @@
         <v>2258.905518629999</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15014,11 +15648,15 @@
         <v>2265.910218629999</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15047,11 +15685,15 @@
         <v>2281.843118629999</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15080,11 +15722,15 @@
         <v>2300.306618629999</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15113,11 +15759,15 @@
         <v>2773.766480279999</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15146,11 +15796,15 @@
         <v>2719.502980279999</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +15833,15 @@
         <v>2656.339980279999</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15212,11 +15870,15 @@
         <v>2657.149580279999</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15245,11 +15907,15 @@
         <v>2699.425780279999</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15282,7 +15948,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15315,7 +15985,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15348,7 +16022,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15381,7 +16059,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15414,7 +16096,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15447,7 +16133,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15480,7 +16170,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15513,7 +16207,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15546,7 +16244,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +16281,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15612,7 +16318,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15641,11 +16351,15 @@
         <v>2988.270445649999</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15674,11 +16388,15 @@
         <v>2982.594145649999</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15711,7 +16429,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15744,7 +16466,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15777,7 +16503,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15806,14 +16536,16 @@
         <v>2930.622042919998</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="inlineStr"/>
     </row>
     <row r="434">
@@ -15839,7 +16571,7 @@
         <v>2936.185174899998</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15872,7 +16604,7 @@
         <v>2920.287174899998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16070,7 +16802,7 @@
         <v>2873.547274899998</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16268,7 +17000,7 @@
         <v>2884.245974899998</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16367,7 +17099,7 @@
         <v>2905.616374899998</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16400,7 +17132,7 @@
         <v>2887.796474899998</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16598,7 +17330,7 @@
         <v>2942.391384309998</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16697,7 +17429,7 @@
         <v>2913.524084309997</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16730,7 +17462,7 @@
         <v>2918.524084309997</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16763,7 +17495,7 @@
         <v>2906.178984309997</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16829,7 +17561,7 @@
         <v>2903.418984309997</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16895,7 +17627,7 @@
         <v>2898.339284309997</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16928,7 +17660,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16961,7 +17693,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16994,7 +17726,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17027,7 +17759,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17060,7 +17792,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17093,7 +17825,7 @@
         <v>2891.182684309998</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17126,7 +17858,7 @@
         <v>2891.182684309998</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17159,7 +17891,7 @@
         <v>2862.516284309997</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17192,7 +17924,7 @@
         <v>2862.516284309997</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17225,7 +17957,7 @@
         <v>2862.870184309998</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17258,7 +17990,7 @@
         <v>2862.881984309998</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17291,7 +18023,7 @@
         <v>2862.881984309998</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17324,7 +18056,7 @@
         <v>3312.975884309998</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17357,7 +18089,7 @@
         <v>3232.881484309998</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17390,7 +18122,7 @@
         <v>3230.703984309998</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17555,7 +18287,7 @@
         <v>3248.214584309998</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17753,7 +18485,7 @@
         <v>3250.455284309998</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17819,7 +18551,7 @@
         <v>3292.821284309998</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17951,7 +18683,7 @@
         <v>3107.488812229998</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17984,7 +18716,7 @@
         <v>3107.488812229998</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18017,7 +18749,7 @@
         <v>3107.488812229998</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18050,7 +18782,7 @@
         <v>3117.398312229998</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18083,7 +18815,7 @@
         <v>3126.865912229998</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18116,7 +18848,7 @@
         <v>3202.920712229998</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18149,7 +18881,7 @@
         <v>3154.476912229998</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18182,7 +18914,7 @@
         <v>3260.405712229998</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18215,7 +18947,7 @@
         <v>3266.345712229998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18248,7 +18980,7 @@
         <v>3262.810212229998</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18281,7 +19013,7 @@
         <v>3293.699212229998</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18314,7 +19046,7 @@
         <v>3284.618512229998</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18347,7 +19079,7 @@
         <v>3219.487312229999</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18413,7 +19145,7 @@
         <v>3155.579712229999</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18479,7 +19211,7 @@
         <v>3164.724712229999</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18578,7 +19310,7 @@
         <v>3159.531112229999</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18644,7 +19376,7 @@
         <v>3475.938247509998</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18677,7 +19409,7 @@
         <v>3475.938247509998</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18710,7 +19442,7 @@
         <v>3455.864847509998</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18743,7 +19475,7 @@
         <v>3453.992647509998</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18776,7 +19508,7 @@
         <v>3453.992647509998</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18809,7 +19541,7 @@
         <v>3449.573247509998</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18842,7 +19574,7 @@
         <v>3450.929247509998</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18875,7 +19607,7 @@
         <v>3444.970647509998</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18908,7 +19640,7 @@
         <v>3475.173647509998</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18941,7 +19673,7 @@
         <v>3486.320678579998</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18974,7 +19706,7 @@
         <v>3456.070478579999</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19007,7 +19739,7 @@
         <v>3487.910081599999</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19040,7 +19772,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19073,7 +19805,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19106,7 +19838,7 @@
         <v>3536.283178579999</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19139,7 +19871,7 @@
         <v>3526.526178579998</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19172,7 +19904,7 @@
         <v>3701.710478579998</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19205,7 +19937,7 @@
         <v>3689.035978579998</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19238,7 +19970,7 @@
         <v>3649.302578579998</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19271,7 +20003,7 @@
         <v>3644.313678579998</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19304,7 +20036,7 @@
         <v>3605.258378579998</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19337,7 +20069,7 @@
         <v>3626.379378579999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19370,7 +20102,7 @@
         <v>3651.135978579999</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19403,7 +20135,7 @@
         <v>3691.778478579999</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19436,7 +20168,7 @@
         <v>3652.124778579999</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19469,7 +20201,7 @@
         <v>3652.402178579999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19502,7 +20234,7 @@
         <v>3655.056978579998</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19535,7 +20267,7 @@
         <v>3646.791278579999</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19568,7 +20300,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19601,7 +20333,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19634,7 +20366,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19667,7 +20399,7 @@
         <v>3170.193678579999</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19700,7 +20432,7 @@
         <v>3184.043978579999</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19733,7 +20465,7 @@
         <v>3179.876978579999</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19766,7 +20498,7 @@
         <v>3164.743178579999</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19898,7 +20630,7 @@
         <v>3364.639878579999</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19931,7 +20663,7 @@
         <v>3364.639878579999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19964,7 +20696,7 @@
         <v>3401.168378579999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19997,7 +20729,7 @@
         <v>3646.864178579999</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20030,7 +20762,7 @@
         <v>3634.802178579999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20063,7 +20795,7 @@
         <v>3634.802178579999</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20096,7 +20828,7 @@
         <v>3634.802178579999</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20129,7 +20861,7 @@
         <v>3628.610978579999</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20162,7 +20894,7 @@
         <v>3628.610978579999</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20195,7 +20927,7 @@
         <v>3646.822378579999</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20228,7 +20960,7 @@
         <v>3646.415278579999</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20294,7 +21026,7 @@
         <v>3628.818578579999</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20327,7 +21059,7 @@
         <v>3662.694483969999</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20360,7 +21092,7 @@
         <v>3652.920183969999</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20393,7 +21125,7 @@
         <v>3652.920183969999</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20426,7 +21158,7 @@
         <v>3607.108583969999</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20459,7 +21191,7 @@
         <v>3586.188583969998</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20492,7 +21224,7 @@
         <v>3587.746583969998</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20921,7 +21653,7 @@
         <v>3735.042983969998</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21119,7 +21851,7 @@
         <v>3793.202836129998</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21152,7 +21884,7 @@
         <v>3812.563048569998</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21185,7 +21917,7 @@
         <v>3799.875748569998</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21218,7 +21950,7 @@
         <v>3787.688448569998</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21251,7 +21983,7 @@
         <v>3815.034648569998</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21284,7 +22016,7 @@
         <v>3811.316748569998</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21350,7 +22082,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21449,7 +22181,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21482,7 +22214,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21515,7 +22247,7 @@
         <v>3792.809048569998</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21548,7 +22280,7 @@
         <v>3792.639548569998</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21581,7 +22313,7 @@
         <v>3791.596748569998</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21614,7 +22346,7 @@
         <v>3786.766148569998</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21647,7 +22379,7 @@
         <v>3816.266148569998</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21680,7 +22412,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21713,7 +22445,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21746,7 +22478,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21779,7 +22511,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21812,7 +22544,7 @@
         <v>3814.547748569998</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21845,7 +22577,7 @@
         <v>3815.136048569998</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21878,7 +22610,7 @@
         <v>3815.220248569998</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21911,7 +22643,7 @@
         <v>3815.420248569998</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21944,7 +22676,7 @@
         <v>3815.409648569997</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21977,7 +22709,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22142,7 +22874,7 @@
         <v>3783.916448569998</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22175,7 +22907,7 @@
         <v>3793.697448569998</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22208,7 +22940,7 @@
         <v>3841.623948569998</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22241,7 +22973,7 @@
         <v>3858.279848569998</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22274,7 +23006,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22307,7 +23039,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22340,7 +23072,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22373,7 +23105,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22406,7 +23138,7 @@
         <v>4152.578748569998</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22439,7 +23171,7 @@
         <v>4140.572748569997</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22472,7 +23204,7 @@
         <v>4139.885148569997</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22505,7 +23237,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22538,7 +23270,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22571,7 +23303,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22604,7 +23336,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22637,7 +23369,7 @@
         <v>4238.209348569997</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22670,7 +23402,7 @@
         <v>4240.711648569997</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22681,6 +23413,6 @@
       <c r="M641" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest DASH.xlsx
+++ b/BackTest/2020-01-15 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1069,11 +1069,9 @@
         <v>122.34954377</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>78900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1106,9 @@
         <v>122.34954377</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>78900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1143,9 @@
         <v>122.04424377</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>78900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,11 +1180,9 @@
         <v>113.39484377</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>78350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1225,11 +1217,9 @@
         <v>111.39484377</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>77850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1966,11 +1956,9 @@
         <v>180.27427779</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>78700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2122,11 +2110,9 @@
         <v>198.53367779</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>79150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2200,11 +2186,9 @@
         <v>228.7825777899999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>79300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2239,11 +2223,9 @@
         <v>312.69237779</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>79300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2278,11 +2260,9 @@
         <v>334.63657841</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>79500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2317,11 +2297,9 @@
         <v>594.60117841</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>79750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2356,20 +2334,16 @@
         <v>573.60117841</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>79800</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2399,11 +2373,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2432,17 +2402,11 @@
         <v>560.10327841</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>79400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2471,17 +2435,11 @@
         <v>547.55907841</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>78800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2510,17 +2468,11 @@
         <v>552.01767841</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>78200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2549,17 +2501,11 @@
         <v>533.4590784100001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>78350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2588,17 +2534,11 @@
         <v>599.8538784100001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>78200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2627,17 +2567,11 @@
         <v>695.1630784100001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>78500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2666,17 +2600,11 @@
         <v>687.3981784100001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>79000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2705,17 +2633,11 @@
         <v>654.5480784100001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>78550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2744,17 +2666,11 @@
         <v>654.5480784100001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>78300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2783,17 +2699,11 @@
         <v>615.0066784100002</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>78300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2822,17 +2732,11 @@
         <v>615.0066784100002</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2861,17 +2765,11 @@
         <v>633.6835784100002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>78250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2904,11 +2802,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2941,11 +2835,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +2868,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3015,11 +2901,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3052,11 +2934,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3089,11 +2967,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3122,17 +2996,11 @@
         <v>635.2077784100002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>79000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3161,17 +3029,11 @@
         <v>635.2077784100002</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>79000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3204,11 +3066,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3099,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3278,11 +3132,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3315,11 +3165,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3352,11 +3198,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3385,17 +3227,11 @@
         <v>658.7355784100001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>79200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3424,17 +3260,11 @@
         <v>686.7355784100001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>79900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3467,11 +3297,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3504,11 +3330,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3541,11 +3363,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3578,11 +3396,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3615,11 +3429,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3462,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3689,11 +3495,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +3528,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3561,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3594,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3837,11 +3627,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3874,11 +3660,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3911,11 +3693,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3948,11 +3726,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +3759,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4022,11 +3792,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4059,11 +3825,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4096,11 +3858,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4133,11 +3891,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4170,11 +3924,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4207,11 +3957,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4244,11 +3990,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4277,17 +4019,11 @@
         <v>805.5443811800003</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>78750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4320,11 +4056,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4357,11 +4089,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4394,11 +4122,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4431,11 +4155,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4468,11 +4188,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4221,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4542,11 +4254,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4287,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4616,11 +4320,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4653,11 +4353,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4690,11 +4386,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4727,11 +4419,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4764,11 +4452,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4797,17 +4481,11 @@
         <v>748.4316051600005</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>78550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4518,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4877,11 +4551,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4910,17 +4580,11 @@
         <v>734.9098928700004</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>78550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4949,17 +4613,11 @@
         <v>734.9098928700004</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>78450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4992,11 +4650,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5025,17 +4679,11 @@
         <v>771.6861800000004</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>78550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5068,11 +4716,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5105,11 +4749,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +4782,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5179,11 +4815,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5216,11 +4848,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5249,17 +4877,11 @@
         <v>733.8867863200005</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>78600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5292,11 +4914,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5329,11 +4947,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +4980,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5013,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5046,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5477,11 +5079,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5112,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5145,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5178,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +5211,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5244,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5277,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +5310,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5343,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5376,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5409,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5442,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5475,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5508,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5541,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5574,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5607,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5640,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5673,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5706,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +5739,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5772,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5805,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +5838,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6365,11 +5871,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +5904,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +5937,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +5970,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6003,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6036,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +6069,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6102,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +6135,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6168,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6201,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6234,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6267,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6300,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6333,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +6366,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6953,15 +6395,11 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6990,15 +6428,11 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7027,15 +6461,11 @@
         <v>932.5003620400003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7064,15 +6494,11 @@
         <v>932.3243620400002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7101,15 +6527,11 @@
         <v>940.9619620400002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7138,15 +6560,11 @@
         <v>940.9556620400002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7175,15 +6593,11 @@
         <v>939.9556620400002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7212,15 +6626,11 @@
         <v>938.9556620400002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7253,11 +6663,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7290,11 +6696,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7327,11 +6729,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +6762,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7401,11 +6795,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +6828,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +6861,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +6894,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +6927,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +6960,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +6993,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +7026,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +7059,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +7092,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +7125,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +7158,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7191,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7224,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7257,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7290,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7323,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7356,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7389,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7422,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7455,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8174,15 +7484,11 @@
         <v>953.8818227100003</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8211,15 +7517,11 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8248,15 +7550,11 @@
         <v>941.0775227100003</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8285,15 +7583,11 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8322,15 +7616,11 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8359,15 +7649,11 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8396,15 +7682,11 @@
         <v>975.1433227100003</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8433,15 +7715,11 @@
         <v>943.1433227100003</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +7752,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +7785,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8544,15 +7814,11 @@
         <v>966.9528227100003</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +7851,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +7884,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +7917,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8696,11 +7950,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8729,15 +7979,11 @@
         <v>973.7944227100004</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8766,15 +8012,11 @@
         <v>992.4845227100004</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8803,15 +8045,11 @@
         <v>998.8663227100004</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8840,15 +8078,11 @@
         <v>999.8663227100004</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8877,15 +8111,11 @@
         <v>1037.550322710001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8914,15 +8144,11 @@
         <v>1037.607322710001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8951,15 +8177,11 @@
         <v>1143.92192271</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8988,15 +8210,11 @@
         <v>1119.17582271</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9025,15 +8243,11 @@
         <v>1116.45382271</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9062,15 +8276,11 @@
         <v>1107.741422710001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9099,15 +8309,11 @@
         <v>1104.76322271</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9136,15 +8342,11 @@
         <v>1105.76322271</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9173,15 +8375,11 @@
         <v>1074.37202271</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9210,15 +8408,11 @@
         <v>1062.486722710001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9247,15 +8441,11 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9284,15 +8474,11 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9321,15 +8507,11 @@
         <v>1062.531822110001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9358,15 +8540,11 @@
         <v>1062.94342211</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9395,15 +8573,11 @@
         <v>1062.94342211</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9432,15 +8606,11 @@
         <v>1070.230782690001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9469,15 +8639,11 @@
         <v>1149.337753700001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9506,15 +8672,11 @@
         <v>1147.255553700001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9543,15 +8705,11 @@
         <v>1148.9993537</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9580,15 +8738,11 @@
         <v>1154.848753700001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9617,15 +8771,11 @@
         <v>1146.4612537</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9654,15 +8804,11 @@
         <v>1146.4612537</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9691,15 +8837,11 @@
         <v>1160.316253700001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9728,15 +8870,11 @@
         <v>1190.167653700001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9765,15 +8903,11 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9802,15 +8936,11 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9839,15 +8969,11 @@
         <v>1110.290753700001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9876,15 +9002,11 @@
         <v>1116.5002537</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9913,15 +9035,11 @@
         <v>1116.5002537</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9950,15 +9068,11 @@
         <v>1119.7160537</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9987,15 +9101,11 @@
         <v>1119.7160537</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10024,15 +9134,11 @@
         <v>1123.1512537</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10061,15 +9167,11 @@
         <v>1123.1512537</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10098,15 +9200,11 @@
         <v>1127.7598537</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10135,15 +9233,11 @@
         <v>1128.7598537</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10172,15 +9266,11 @@
         <v>1141.0363537</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10209,15 +9299,11 @@
         <v>1139.5163537</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10246,15 +9332,11 @@
         <v>1165.4984537</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10283,15 +9365,11 @@
         <v>1165.1330537</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10320,15 +9398,11 @@
         <v>1272.9333537</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10357,15 +9431,11 @@
         <v>1351.2654537</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10394,15 +9464,11 @@
         <v>1429.6388537</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10431,15 +9497,11 @@
         <v>1434.1265537</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10468,15 +9530,11 @@
         <v>1461.7965537</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10505,15 +9563,11 @@
         <v>1461.7965537</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10542,15 +9596,11 @@
         <v>1461.62506115</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10579,15 +9629,11 @@
         <v>1422.59006115</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10616,15 +9662,11 @@
         <v>1422.59006115</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10653,15 +9695,11 @@
         <v>1422.59006115</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10690,15 +9728,11 @@
         <v>1430.94706115</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10727,15 +9761,11 @@
         <v>1434.91406115</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10764,15 +9794,11 @@
         <v>1441.26726115</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10801,15 +9827,11 @@
         <v>1452.21036115</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10838,15 +9860,11 @@
         <v>1472.48016115</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10875,15 +9893,11 @@
         <v>1526.90356115</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10912,15 +9926,11 @@
         <v>1533.59626115</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10949,15 +9959,11 @@
         <v>1533.59626115</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10986,15 +9992,11 @@
         <v>1626.66656115</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11023,15 +10025,11 @@
         <v>1626.66656115</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11060,15 +10058,11 @@
         <v>1626.55956115</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11097,15 +10091,11 @@
         <v>1626.16486115</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11134,15 +10124,11 @@
         <v>1619.44731797</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +10161,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +10194,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +10227,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11282,15 +10256,11 @@
         <v>1639.72601797</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11319,15 +10289,11 @@
         <v>1638.91501797</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11356,15 +10322,11 @@
         <v>1642.31571797</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11393,15 +10355,11 @@
         <v>1640.03891797</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11430,15 +10388,11 @@
         <v>1630.35981797</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11467,15 +10421,11 @@
         <v>1630.65191797</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11504,15 +10454,11 @@
         <v>1630.20591797</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11541,15 +10487,11 @@
         <v>1630.20591797</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11578,15 +10520,11 @@
         <v>1689.55671797</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11619,11 +10557,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11656,11 +10590,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11689,15 +10619,11 @@
         <v>1685.11321797</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11726,15 +10652,11 @@
         <v>1682.96551797</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11763,15 +10685,11 @@
         <v>1642.58261797</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11800,15 +10718,11 @@
         <v>1639.25781797</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11837,15 +10751,11 @@
         <v>1731.97331797</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11874,15 +10784,11 @@
         <v>1737.50571797</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11911,15 +10817,11 @@
         <v>1737.50571797</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11948,15 +10850,11 @@
         <v>1736.70771797</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11985,15 +10883,11 @@
         <v>1728.16721797</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12022,15 +10916,11 @@
         <v>1721.18011797</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12059,15 +10949,11 @@
         <v>1860.32521797</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12096,15 +10982,11 @@
         <v>1859.33241797</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12133,15 +11015,11 @@
         <v>1857.07731797</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12170,15 +11048,11 @@
         <v>1857.07731797</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12207,15 +11081,11 @@
         <v>1857.29831797</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12248,11 +11118,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +11151,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +11184,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +11217,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +11250,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12433,11 +11283,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12470,11 +11316,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12503,15 +11345,11 @@
         <v>1886.69311797</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12540,15 +11378,11 @@
         <v>1886.54541797</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12581,11 +11415,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +11448,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +11481,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12692,11 +11514,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12729,11 +11547,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12766,11 +11580,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12803,11 +11613,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12840,11 +11646,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +11679,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12914,11 +11712,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12951,11 +11745,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12988,11 +11778,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13025,11 +11811,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13062,11 +11844,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13099,11 +11877,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13136,11 +11910,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13173,11 +11943,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13206,15 +11972,11 @@
         <v>1917.90341797</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13243,15 +12005,11 @@
         <v>1945.221663939999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13280,15 +12038,11 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13317,15 +12071,11 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13354,15 +12104,11 @@
         <v>1960.401963939999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13391,15 +12137,11 @@
         <v>1966.461763939999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13428,15 +12170,11 @@
         <v>1976.401263939999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13465,15 +12203,11 @@
         <v>1969.338763939999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13502,15 +12236,11 @@
         <v>1970.103063939999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13539,15 +12269,11 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13576,15 +12302,11 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13613,15 +12335,11 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13650,15 +12368,11 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13687,15 +12401,11 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13724,15 +12434,11 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13761,15 +12467,11 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13798,15 +12500,11 @@
         <v>1930.028163939999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13835,15 +12533,11 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13872,15 +12566,11 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13909,15 +12599,11 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13946,15 +12632,11 @@
         <v>1910.622663939999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13983,15 +12665,11 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14020,15 +12698,11 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14057,15 +12731,11 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14094,15 +12764,11 @@
         <v>1980.246163939999</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14131,15 +12797,11 @@
         <v>1978.308063939999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14172,11 +12834,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14205,15 +12863,11 @@
         <v>2023.540563939999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14242,15 +12896,11 @@
         <v>2025.834163939999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14279,15 +12929,11 @@
         <v>2039.181063939999</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14316,15 +12962,11 @@
         <v>2051.816863939999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14353,15 +12995,11 @@
         <v>2063.341263939999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14390,15 +13028,11 @@
         <v>2061.793963939999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14427,15 +13061,11 @@
         <v>2060.930663939999</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14468,11 +13098,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14501,15 +13127,11 @@
         <v>2070.498663939999</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +13164,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14575,15 +13193,11 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14612,15 +13226,11 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14653,11 +13263,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14690,11 +13296,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14727,11 +13329,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14764,11 +13362,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14801,11 +13395,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14838,11 +13428,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14875,11 +13461,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14912,11 +13494,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14949,11 +13527,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14986,11 +13560,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15023,11 +13593,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15060,11 +13626,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15097,11 +13659,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15134,11 +13692,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15171,11 +13725,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15208,11 +13758,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15245,11 +13791,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15282,11 +13824,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15319,11 +13857,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15356,11 +13890,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15393,11 +13923,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15430,11 +13956,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15467,11 +13989,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15504,11 +14022,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15541,11 +14055,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15578,11 +14088,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15615,11 +14121,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15652,11 +14154,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15689,11 +14187,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15726,11 +14220,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +14253,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15800,11 +14286,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15837,11 +14319,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15874,11 +14352,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15911,11 +14385,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15948,11 +14418,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15985,11 +14451,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16022,11 +14484,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16059,11 +14517,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16096,11 +14550,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16133,11 +14583,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16170,11 +14616,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16207,11 +14649,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16244,11 +14682,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16281,11 +14715,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16318,11 +14748,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16355,11 +14781,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16392,11 +14814,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16429,11 +14847,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16466,11 +14880,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16503,11 +14913,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16536,16 +14942,14 @@
         <v>2930.622042919998</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
       <c r="M433" t="inlineStr"/>
     </row>
     <row r="434">
@@ -16571,7 +14975,7 @@
         <v>2936.185174899998</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16604,7 +15008,7 @@
         <v>2920.287174899998</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16637,7 +15041,7 @@
         <v>2920.287174899998</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16670,7 +15074,7 @@
         <v>2906.032274899998</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16703,7 +15107,7 @@
         <v>2894.834374899998</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16736,7 +15140,7 @@
         <v>2885.981074899998</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16769,7 +15173,7 @@
         <v>2895.172574899998</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16835,7 +15239,7 @@
         <v>2888.830274899998</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16868,7 +15272,7 @@
         <v>2887.845574899998</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16901,7 +15305,7 @@
         <v>2897.719074899998</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16934,7 +15338,7 @@
         <v>2887.894374899998</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17000,7 +15404,7 @@
         <v>2884.245974899998</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17099,7 +15503,7 @@
         <v>2905.616374899998</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17132,7 +15536,7 @@
         <v>2887.796474899998</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17330,7 +15734,7 @@
         <v>2942.391384309998</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17462,7 +15866,7 @@
         <v>2918.524084309997</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17660,7 +16064,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17693,7 +16097,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17726,7 +16130,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17759,7 +16163,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17792,7 +16196,7 @@
         <v>2942.483484309997</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17825,7 +16229,7 @@
         <v>2891.182684309998</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17858,7 +16262,7 @@
         <v>2891.182684309998</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17891,7 +16295,7 @@
         <v>2862.516284309997</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17924,7 +16328,7 @@
         <v>2862.516284309997</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17957,7 +16361,7 @@
         <v>2862.870184309998</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17990,7 +16394,7 @@
         <v>2862.881984309998</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18023,7 +16427,7 @@
         <v>2862.881984309998</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18056,7 +16460,7 @@
         <v>3312.975884309998</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18089,7 +16493,7 @@
         <v>3232.881484309998</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18287,7 +16691,7 @@
         <v>3248.214584309998</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18485,7 +16889,7 @@
         <v>3250.455284309998</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18551,7 +16955,7 @@
         <v>3292.821284309998</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18683,7 +17087,7 @@
         <v>3107.488812229998</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18716,7 +17120,7 @@
         <v>3107.488812229998</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18749,7 +17153,7 @@
         <v>3107.488812229998</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18782,7 +17186,7 @@
         <v>3117.398312229998</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18815,7 +17219,7 @@
         <v>3126.865912229998</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18848,7 +17252,7 @@
         <v>3202.920712229998</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18881,7 +17285,7 @@
         <v>3154.476912229998</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18914,7 +17318,7 @@
         <v>3260.405712229998</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18947,7 +17351,7 @@
         <v>3266.345712229998</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18980,7 +17384,7 @@
         <v>3262.810212229998</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19013,7 +17417,7 @@
         <v>3293.699212229998</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19046,7 +17450,7 @@
         <v>3284.618512229998</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19079,7 +17483,7 @@
         <v>3219.487312229999</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19145,7 +17549,7 @@
         <v>3155.579712229999</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19211,7 +17615,7 @@
         <v>3164.724712229999</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19310,7 +17714,7 @@
         <v>3159.531112229999</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19376,7 +17780,7 @@
         <v>3475.938247509998</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19409,7 +17813,7 @@
         <v>3475.938247509998</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19442,7 +17846,7 @@
         <v>3455.864847509998</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19475,7 +17879,7 @@
         <v>3453.992647509998</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19508,7 +17912,7 @@
         <v>3453.992647509998</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19541,7 +17945,7 @@
         <v>3449.573247509998</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19574,7 +17978,7 @@
         <v>3450.929247509998</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19607,7 +18011,7 @@
         <v>3444.970647509998</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19640,7 +18044,7 @@
         <v>3475.173647509998</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19673,7 +18077,7 @@
         <v>3486.320678579998</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19706,7 +18110,7 @@
         <v>3456.070478579999</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19739,7 +18143,7 @@
         <v>3487.910081599999</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19772,7 +18176,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19805,7 +18209,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19838,7 +18242,7 @@
         <v>3536.283178579999</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19871,7 +18275,7 @@
         <v>3526.526178579998</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19904,7 +18308,7 @@
         <v>3701.710478579998</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19937,7 +18341,7 @@
         <v>3689.035978579998</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19970,7 +18374,7 @@
         <v>3649.302578579998</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20003,7 +18407,7 @@
         <v>3644.313678579998</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20036,7 +18440,7 @@
         <v>3605.258378579998</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20069,7 +18473,7 @@
         <v>3626.379378579999</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20102,7 +18506,7 @@
         <v>3651.135978579999</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20135,7 +18539,7 @@
         <v>3691.778478579999</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20168,7 +18572,7 @@
         <v>3652.124778579999</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20201,7 +18605,7 @@
         <v>3652.402178579999</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20234,7 +18638,7 @@
         <v>3655.056978579998</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20267,7 +18671,7 @@
         <v>3646.791278579999</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20300,7 +18704,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20333,7 +18737,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20366,7 +18770,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20399,7 +18803,7 @@
         <v>3170.193678579999</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20432,7 +18836,7 @@
         <v>3184.043978579999</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20465,7 +18869,7 @@
         <v>3179.876978579999</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20498,7 +18902,7 @@
         <v>3164.743178579999</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20630,7 +19034,7 @@
         <v>3364.639878579999</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20663,7 +19067,7 @@
         <v>3364.639878579999</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20696,7 +19100,7 @@
         <v>3401.168378579999</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20729,7 +19133,7 @@
         <v>3646.864178579999</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20762,7 +19166,7 @@
         <v>3634.802178579999</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20795,7 +19199,7 @@
         <v>3634.802178579999</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20828,7 +19232,7 @@
         <v>3634.802178579999</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20861,7 +19265,7 @@
         <v>3628.610978579999</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20894,7 +19298,7 @@
         <v>3628.610978579999</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20927,7 +19331,7 @@
         <v>3646.822378579999</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20960,7 +19364,7 @@
         <v>3646.415278579999</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21026,7 +19430,7 @@
         <v>3628.818578579999</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21059,7 +19463,7 @@
         <v>3662.694483969999</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21092,7 +19496,7 @@
         <v>3652.920183969999</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21125,7 +19529,7 @@
         <v>3652.920183969999</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21158,7 +19562,7 @@
         <v>3607.108583969999</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21191,7 +19595,7 @@
         <v>3586.188583969998</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21224,7 +19628,7 @@
         <v>3587.746583969998</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21653,7 +20057,7 @@
         <v>3735.042983969998</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21851,7 +20255,7 @@
         <v>3793.202836129998</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21884,7 +20288,7 @@
         <v>3812.563048569998</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21950,7 +20354,7 @@
         <v>3787.688448569998</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21983,7 +20387,7 @@
         <v>3815.034648569998</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22016,7 +20420,7 @@
         <v>3811.316748569998</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22082,7 +20486,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22181,7 +20585,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22214,7 +20618,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22247,7 +20651,7 @@
         <v>3792.809048569998</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22280,7 +20684,7 @@
         <v>3792.639548569998</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22313,7 +20717,7 @@
         <v>3791.596748569998</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22346,7 +20750,7 @@
         <v>3786.766148569998</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22379,7 +20783,7 @@
         <v>3816.266148569998</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22412,7 +20816,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22445,7 +20849,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22478,7 +20882,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22511,7 +20915,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22544,7 +20948,7 @@
         <v>3814.547748569998</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22577,7 +20981,7 @@
         <v>3815.136048569998</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22610,7 +21014,7 @@
         <v>3815.220248569998</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22643,7 +21047,7 @@
         <v>3815.420248569998</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22676,7 +21080,7 @@
         <v>3815.409648569997</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22709,7 +21113,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23138,7 +21542,7 @@
         <v>4152.578748569998</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23171,7 +21575,7 @@
         <v>4140.572748569997</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23204,7 +21608,7 @@
         <v>4139.885148569997</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23413,6 +21817,6 @@
       <c r="M641" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest DASH.xlsx
+++ b/BackTest/2020-01-15 BackTest DASH.xlsx
@@ -1069,9 +1069,11 @@
         <v>122.34954377</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>78900</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1106,9 +1108,11 @@
         <v>122.34954377</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>78900</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1143,9 +1147,11 @@
         <v>122.04424377</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>78900</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1180,9 +1186,11 @@
         <v>113.39484377</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>78350</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1217,9 +1225,11 @@
         <v>111.39484377</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>77850</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1993,11 +2003,9 @@
         <v>180.7242777899999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>78150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2032,11 +2040,9 @@
         <v>180.8542777899999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>78200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2071,11 +2077,9 @@
         <v>198.35297779</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>78700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2147,11 +2151,9 @@
         <v>228.7825777899999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>79250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2334,16 +2336,18 @@
         <v>573.60117841</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2373,7 +2377,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2406,7 +2414,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2439,7 +2451,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2472,7 +2488,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2505,7 +2525,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2538,7 +2562,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2571,7 +2599,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2604,7 +2636,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2637,7 +2673,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2670,7 +2710,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2703,7 +2747,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2736,7 +2784,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2769,7 +2821,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,7 +2858,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2835,7 +2895,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2868,7 +2932,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2901,7 +2969,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2934,7 +3006,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2967,7 +3043,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3000,7 +3080,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3033,7 +3117,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3066,7 +3154,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3099,7 +3191,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3132,7 +3228,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3165,7 +3265,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3198,7 +3302,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3231,7 +3339,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3264,7 +3376,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3297,7 +3413,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3330,7 +3450,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3487,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3396,7 +3524,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3429,7 +3561,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3462,7 +3598,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3495,7 +3635,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3528,7 +3672,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3561,7 +3709,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3594,7 +3746,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3627,7 +3783,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3660,7 +3820,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3693,7 +3857,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3726,7 +3894,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3759,7 +3931,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3792,7 +3968,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3825,7 +4005,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3858,7 +4042,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3891,7 +4079,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3924,7 +4116,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3957,7 +4153,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3990,7 +4190,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4023,7 +4227,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4056,7 +4264,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4089,7 +4301,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4122,7 +4338,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4155,7 +4375,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4188,7 +4412,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4221,7 +4449,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4254,7 +4486,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4287,7 +4523,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4320,7 +4560,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4353,7 +4597,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4386,7 +4634,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4419,7 +4671,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4452,7 +4708,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4485,7 +4745,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4782,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4551,7 +4819,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4584,7 +4856,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4617,7 +4893,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4650,7 +4930,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4683,7 +4967,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4716,7 +5004,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4749,7 +5041,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4782,7 +5078,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4815,7 +5115,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4848,7 +5152,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4881,7 +5189,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4914,7 +5226,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4947,7 +5263,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4980,7 +5300,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5013,7 +5337,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5046,7 +5374,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5079,7 +5411,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5112,7 +5448,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5145,7 +5485,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5178,7 +5522,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5211,7 +5559,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5244,7 +5596,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5277,7 +5633,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5310,7 +5670,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5343,7 +5707,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5376,7 +5744,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5409,7 +5781,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5442,7 +5818,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5475,7 +5855,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5508,7 +5892,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5541,7 +5929,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5574,7 +5966,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5607,7 +6003,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5640,7 +6040,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +6077,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5706,7 +6114,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5739,7 +6151,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5772,7 +6188,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5805,7 +6225,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5838,7 +6262,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5871,7 +6299,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5904,7 +6336,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5937,7 +6373,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +6410,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6003,7 +6447,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6036,7 +6484,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6069,7 +6521,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6102,7 +6558,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6135,7 +6595,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6168,7 +6632,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6201,7 +6669,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6234,7 +6706,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6267,7 +6743,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6300,7 +6780,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6333,7 +6817,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6366,7 +6854,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +6887,15 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6428,11 +6924,15 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6461,11 +6961,15 @@
         <v>932.5003620400003</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6494,11 +6998,15 @@
         <v>932.3243620400002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6527,11 +7035,15 @@
         <v>940.9619620400002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6560,11 +7072,15 @@
         <v>940.9556620400002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6593,11 +7109,15 @@
         <v>939.9556620400002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6626,11 +7146,15 @@
         <v>938.9556620400002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6663,7 +7187,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6696,7 +7224,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6729,7 +7261,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6762,7 +7298,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6795,7 +7335,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7372,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6861,7 +7409,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6894,7 +7446,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6927,7 +7483,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6960,7 +7520,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6993,7 +7557,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7026,7 +7594,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7059,7 +7631,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7092,7 +7668,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7125,7 +7705,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7158,7 +7742,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7191,7 +7779,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7224,7 +7816,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7257,7 +7853,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7290,7 +7890,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7323,7 +7927,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7356,7 +7964,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7389,7 +8001,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7422,7 +8038,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7455,7 +8075,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7484,11 +8108,15 @@
         <v>953.8818227100003</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7517,11 +8145,15 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7550,11 +8182,15 @@
         <v>941.0775227100003</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7583,11 +8219,15 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7616,11 +8256,15 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7649,11 +8293,15 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7682,11 +8330,15 @@
         <v>975.1433227100003</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7715,11 +8367,15 @@
         <v>943.1433227100003</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7752,7 +8408,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7785,7 +8445,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7814,11 +8478,15 @@
         <v>966.9528227100003</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7851,7 +8519,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7884,7 +8556,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7917,7 +8593,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7950,7 +8630,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7979,11 +8663,15 @@
         <v>973.7944227100004</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8012,11 +8700,15 @@
         <v>992.4845227100004</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8045,11 +8737,15 @@
         <v>998.8663227100004</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8078,11 +8774,15 @@
         <v>999.8663227100004</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8111,11 +8811,15 @@
         <v>1037.550322710001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8144,11 +8848,15 @@
         <v>1037.607322710001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8177,11 +8885,15 @@
         <v>1143.92192271</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8210,11 +8922,15 @@
         <v>1119.17582271</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +8959,15 @@
         <v>1116.45382271</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8276,11 +8996,15 @@
         <v>1107.741422710001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8309,11 +9033,15 @@
         <v>1104.76322271</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8342,11 +9070,15 @@
         <v>1105.76322271</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8375,11 +9107,15 @@
         <v>1074.37202271</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8408,11 +9144,15 @@
         <v>1062.486722710001</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +9181,15 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +9218,15 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8507,11 +9255,15 @@
         <v>1062.531822110001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8540,11 +9292,15 @@
         <v>1062.94342211</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +9329,15 @@
         <v>1062.94342211</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +9366,15 @@
         <v>1070.230782690001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +9403,15 @@
         <v>1149.337753700001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +9440,15 @@
         <v>1147.255553700001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8705,11 +9477,15 @@
         <v>1148.9993537</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8738,11 +9514,15 @@
         <v>1154.848753700001</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +9551,15 @@
         <v>1146.4612537</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8804,11 +9588,15 @@
         <v>1146.4612537</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +9625,15 @@
         <v>1160.316253700001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +9662,15 @@
         <v>1190.167653700001</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +9699,15 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +9736,15 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +9773,15 @@
         <v>1110.290753700001</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9002,11 +9810,15 @@
         <v>1116.5002537</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9035,11 +9847,15 @@
         <v>1116.5002537</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +9884,15 @@
         <v>1119.7160537</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9101,11 +9921,15 @@
         <v>1119.7160537</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9134,11 +9958,15 @@
         <v>1123.1512537</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +9995,15 @@
         <v>1123.1512537</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9200,11 +10032,15 @@
         <v>1127.7598537</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9233,11 +10069,15 @@
         <v>1128.7598537</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9266,11 +10106,15 @@
         <v>1141.0363537</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +10143,15 @@
         <v>1139.5163537</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9332,11 +10180,15 @@
         <v>1165.4984537</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +10217,15 @@
         <v>1165.1330537</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9398,11 +10254,15 @@
         <v>1272.9333537</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9431,11 +10291,15 @@
         <v>1351.2654537</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +10328,15 @@
         <v>1429.6388537</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +10365,15 @@
         <v>1434.1265537</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9530,11 +10402,15 @@
         <v>1461.7965537</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9563,11 +10439,15 @@
         <v>1461.7965537</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9596,11 +10476,15 @@
         <v>1461.62506115</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9629,11 +10513,15 @@
         <v>1422.59006115</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +10550,15 @@
         <v>1422.59006115</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +10587,15 @@
         <v>1422.59006115</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9728,11 +10624,15 @@
         <v>1430.94706115</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9761,11 +10661,15 @@
         <v>1434.91406115</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9794,11 +10698,15 @@
         <v>1441.26726115</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +10735,15 @@
         <v>1452.21036115</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9860,11 +10772,15 @@
         <v>1472.48016115</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9893,11 +10809,15 @@
         <v>1526.90356115</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9926,11 +10846,15 @@
         <v>1533.59626115</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9959,11 +10883,15 @@
         <v>1533.59626115</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9992,11 +10920,15 @@
         <v>1626.66656115</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10025,11 +10957,15 @@
         <v>1626.66656115</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +10994,15 @@
         <v>1626.55956115</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10091,11 +11031,15 @@
         <v>1626.16486115</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10124,11 +11068,15 @@
         <v>1619.44731797</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10161,7 +11109,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10194,7 +11146,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10227,7 +11183,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10256,11 +11216,15 @@
         <v>1639.72601797</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10289,11 +11253,15 @@
         <v>1638.91501797</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10322,11 +11290,15 @@
         <v>1642.31571797</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10355,11 +11327,15 @@
         <v>1640.03891797</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10388,11 +11364,15 @@
         <v>1630.35981797</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10421,11 +11401,15 @@
         <v>1630.65191797</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10454,11 +11438,15 @@
         <v>1630.20591797</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10487,11 +11475,15 @@
         <v>1630.20591797</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10520,11 +11512,15 @@
         <v>1689.55671797</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10557,7 +11553,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10590,7 +11590,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10619,11 +11623,15 @@
         <v>1685.11321797</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10652,11 +11660,15 @@
         <v>1682.96551797</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10685,11 +11697,15 @@
         <v>1642.58261797</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10718,11 +11734,15 @@
         <v>1639.25781797</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10751,11 +11771,15 @@
         <v>1731.97331797</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10784,11 +11808,15 @@
         <v>1737.50571797</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10817,11 +11845,15 @@
         <v>1737.50571797</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10850,11 +11882,15 @@
         <v>1736.70771797</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10883,11 +11919,15 @@
         <v>1728.16721797</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10916,11 +11956,15 @@
         <v>1721.18011797</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10949,11 +11993,15 @@
         <v>1860.32521797</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10982,11 +12030,15 @@
         <v>1859.33241797</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11015,11 +12067,15 @@
         <v>1857.07731797</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11048,11 +12104,15 @@
         <v>1857.07731797</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11081,11 +12141,15 @@
         <v>1857.29831797</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11118,7 +12182,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11151,7 +12219,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11184,7 +12256,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11217,7 +12293,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11250,7 +12330,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11283,7 +12367,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11316,7 +12404,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11345,11 +12437,15 @@
         <v>1886.69311797</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11378,11 +12474,15 @@
         <v>1886.54541797</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11415,7 +12515,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +12552,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11481,7 +12589,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11514,7 +12626,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11547,7 +12663,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11580,7 +12700,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11613,7 +12737,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11646,7 +12774,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11679,7 +12811,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11712,7 +12848,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11745,7 +12885,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11778,7 +12922,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11811,7 +12959,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11844,7 +12996,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11877,7 +13033,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11910,7 +13070,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11943,7 +13107,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11972,11 +13140,15 @@
         <v>1917.90341797</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12005,11 +13177,15 @@
         <v>1945.221663939999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12038,11 +13214,15 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12071,11 +13251,15 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +13288,15 @@
         <v>1960.401963939999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +13325,15 @@
         <v>1966.461763939999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12170,11 +13362,15 @@
         <v>1976.401263939999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12203,11 +13399,15 @@
         <v>1969.338763939999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12236,11 +13436,15 @@
         <v>1970.103063939999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +13473,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12302,11 +13510,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12335,11 +13547,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12368,11 +13584,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +13621,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +13658,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +13695,15 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +13732,15 @@
         <v>1930.028163939999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +13769,15 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12566,11 +13806,15 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12599,11 +13843,15 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12632,11 +13880,15 @@
         <v>1910.622663939999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12665,11 +13917,15 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12698,11 +13954,15 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12731,11 +13991,15 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12764,11 +14028,15 @@
         <v>1980.246163939999</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12797,11 +14065,15 @@
         <v>1978.308063939999</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12834,7 +14106,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12863,11 +14139,15 @@
         <v>2023.540563939999</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12896,11 +14176,15 @@
         <v>2025.834163939999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12929,11 +14213,15 @@
         <v>2039.181063939999</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12962,11 +14250,15 @@
         <v>2051.816863939999</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12995,11 +14287,15 @@
         <v>2063.341263939999</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13028,11 +14324,15 @@
         <v>2061.793963939999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13061,11 +14361,15 @@
         <v>2060.930663939999</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13098,7 +14402,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13127,11 +14435,15 @@
         <v>2070.498663939999</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13164,7 +14476,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +14509,15 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13226,11 +14546,15 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13263,7 +14587,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13296,7 +14624,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13329,7 +14661,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13362,7 +14698,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13395,7 +14735,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13428,7 +14772,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13461,7 +14809,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13494,7 +14846,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13527,7 +14883,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13560,7 +14920,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13593,7 +14957,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13626,7 +14994,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13659,7 +15031,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13692,7 +15068,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13725,7 +15105,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13758,7 +15142,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13791,7 +15179,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13824,7 +15216,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13857,7 +15253,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13890,7 +15290,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13923,7 +15327,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13956,7 +15364,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13989,7 +15401,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14022,7 +15438,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14055,7 +15475,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14088,7 +15512,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14121,7 +15549,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14154,7 +15586,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14187,7 +15623,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14220,7 +15660,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14253,7 +15697,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14282,14 +15730,16 @@
         <v>2719.502980279999</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="inlineStr"/>
     </row>
     <row r="414">
@@ -15041,7 +16491,7 @@
         <v>2920.287174899998</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15074,7 +16524,7 @@
         <v>2906.032274899998</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15107,7 +16557,7 @@
         <v>2894.834374899998</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15140,7 +16590,7 @@
         <v>2885.981074899998</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15173,7 +16623,7 @@
         <v>2895.172574899998</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15206,7 +16656,7 @@
         <v>2873.547274899998</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15239,7 +16689,7 @@
         <v>2888.830274899998</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15272,7 +16722,7 @@
         <v>2887.845574899998</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15305,7 +16755,7 @@
         <v>2897.719074899998</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15338,7 +16788,7 @@
         <v>2887.894374899998</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -18044,7 +19494,7 @@
         <v>3475.173647509998</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18077,7 +19527,7 @@
         <v>3486.320678579998</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18110,7 +19560,7 @@
         <v>3456.070478579999</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18143,7 +19593,7 @@
         <v>3487.910081599999</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18176,7 +19626,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18209,7 +19659,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18242,7 +19692,7 @@
         <v>3536.283178579999</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18275,7 +19725,7 @@
         <v>3526.526178579998</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18308,7 +19758,7 @@
         <v>3701.710478579998</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18341,7 +19791,7 @@
         <v>3689.035978579998</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18374,7 +19824,7 @@
         <v>3649.302578579998</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18407,7 +19857,7 @@
         <v>3644.313678579998</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18440,7 +19890,7 @@
         <v>3605.258378579998</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18473,7 +19923,7 @@
         <v>3626.379378579999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18506,7 +19956,7 @@
         <v>3651.135978579999</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18539,7 +19989,7 @@
         <v>3691.778478579999</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18572,7 +20022,7 @@
         <v>3652.124778579999</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18605,7 +20055,7 @@
         <v>3652.402178579999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18638,7 +20088,7 @@
         <v>3655.056978579998</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18671,7 +20121,7 @@
         <v>3646.791278579999</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18704,7 +20154,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18737,7 +20187,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18770,7 +20220,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18803,7 +20253,7 @@
         <v>3170.193678579999</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18836,7 +20286,7 @@
         <v>3184.043978579999</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18869,7 +20319,7 @@
         <v>3179.876978579999</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20090,7 +21540,7 @@
         <v>3735.435483969998</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20189,7 +21639,7 @@
         <v>3759.274783969998</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20222,7 +21672,7 @@
         <v>3801.347236129998</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20255,7 +21705,7 @@
         <v>3793.202836129998</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20288,7 +21738,7 @@
         <v>3812.563048569998</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20321,7 +21771,7 @@
         <v>3799.875748569998</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20354,7 +21804,7 @@
         <v>3787.688448569998</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20387,7 +21837,7 @@
         <v>3815.034648569998</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20420,7 +21870,7 @@
         <v>3811.316748569998</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20453,7 +21903,7 @@
         <v>3796.571848569998</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20486,7 +21936,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20519,7 +21969,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20552,7 +22002,7 @@
         <v>3818.701348569998</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20585,7 +22035,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20618,7 +22068,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20651,7 +22101,7 @@
         <v>3792.809048569998</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20684,7 +22134,7 @@
         <v>3792.639548569998</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20717,7 +22167,7 @@
         <v>3791.596748569998</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20750,7 +22200,7 @@
         <v>3786.766148569998</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20783,7 +22233,7 @@
         <v>3816.266148569998</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20816,7 +22266,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20849,7 +22299,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20882,7 +22332,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20915,7 +22365,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20948,7 +22398,7 @@
         <v>3814.547748569998</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20981,7 +22431,7 @@
         <v>3815.136048569998</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21014,7 +22464,7 @@
         <v>3815.220248569998</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21047,7 +22497,7 @@
         <v>3815.420248569998</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21080,7 +22530,7 @@
         <v>3815.409648569997</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21113,7 +22563,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21146,7 +22596,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21179,7 +22629,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21212,7 +22662,7 @@
         <v>3796.980748569998</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21245,7 +22695,7 @@
         <v>3804.014848569997</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21278,7 +22728,7 @@
         <v>3783.916448569998</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21311,7 +22761,7 @@
         <v>3793.697448569998</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21344,7 +22794,7 @@
         <v>3841.623948569998</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21377,7 +22827,7 @@
         <v>3858.279848569998</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21410,7 +22860,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21443,7 +22893,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21476,7 +22926,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21509,7 +22959,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21542,7 +22992,7 @@
         <v>4152.578748569998</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21575,7 +23025,7 @@
         <v>4140.572748569997</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21608,7 +23058,7 @@
         <v>4139.885148569997</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21641,7 +23091,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21674,7 +23124,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21707,7 +23157,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21740,7 +23190,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21773,7 +23223,7 @@
         <v>4238.209348569997</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21806,7 +23256,7 @@
         <v>4240.711648569997</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
